--- a/aichan/549122138714521992_2021-07-19_18-34-21.xlsx
+++ b/aichan/549122138714521992_2021-07-19_18-34-21.xlsx
@@ -695,7 +695,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6648,7 +6648,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10411,7 +10411,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10688,7 +10688,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11142,7 +11142,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12822,7 +12822,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13114,7 +13114,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13434,7 +13434,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13580,7 +13580,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13659,7 +13659,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14022,7 +14022,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15653,7 +15653,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15842,7 +15842,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -16047,7 +16047,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16627,7 +16627,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17333,11 +17333,11 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17941,7 +17941,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18230,7 +18230,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18451,7 +18451,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18530,7 +18530,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18672,7 +18672,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18965,7 +18965,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19039,7 +19039,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19250,7 +19250,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19562,7 +19562,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19633,7 +19633,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19700,7 +19700,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19842,7 +19842,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -20071,7 +20071,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20213,7 +20213,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21080,7 +21080,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21234,7 +21234,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21309,7 +21309,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21447,7 +21447,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21652,7 +21652,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21778,7 +21778,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22154,7 +22154,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22221,7 +22221,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22296,7 +22296,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22730,7 +22730,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22931,7 +22931,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -23290,7 +23290,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23361,7 +23361,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -23582,7 +23582,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23661,7 +23661,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23866,7 +23866,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23941,7 +23941,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24225,7 +24225,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -24367,7 +24367,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24726,7 +24726,7 @@
         </is>
       </c>
       <c r="I334" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
@@ -24880,7 +24880,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -25518,7 +25518,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25656,7 +25656,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25802,7 +25802,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -26007,7 +26007,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -26082,7 +26082,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -26157,7 +26157,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26446,7 +26446,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26597,7 +26597,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -26668,7 +26668,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26885,7 +26885,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -27031,7 +27031,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27319,7 +27319,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27394,7 +27394,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27469,7 +27469,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27690,7 +27690,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27757,7 +27757,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27915,7 +27915,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28128,7 +28128,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28203,7 +28203,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28349,7 +28349,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28570,7 +28570,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -28712,7 +28712,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28783,7 +28783,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28850,7 +28850,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28929,7 +28929,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29541,7 +29541,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29817,7 +29817,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29896,7 +29896,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30188,7 +30188,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30343,7 +30343,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30418,7 +30418,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30495,7 +30495,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30717,7 +30717,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -30792,7 +30792,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -31013,7 +31013,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -31443,7 +31443,7 @@
         </is>
       </c>
       <c r="I426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J426" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31944,7 +31944,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -32228,7 +32228,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -32374,7 +32374,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32796,7 +32796,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -33089,7 +33089,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33239,7 +33239,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33385,7 +33385,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -33606,7 +33606,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33764,7 +33764,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33831,7 +33831,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -34123,7 +34123,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34281,7 +34281,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -34510,7 +34510,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34577,7 +34577,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -34728,7 +34728,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -35103,7 +35103,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -35233,7 +35233,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35382,7 +35382,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35891,7 +35891,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35962,7 +35962,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -36251,7 +36251,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -36536,7 +36536,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36607,7 +36607,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36749,7 +36749,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -36828,7 +36828,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -37053,7 +37053,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -37199,7 +37199,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37333,7 +37333,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37400,7 +37400,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37613,7 +37613,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37842,7 +37842,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -37909,7 +37909,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -37980,7 +37980,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -39028,7 +39028,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39170,7 +39170,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39241,7 +39241,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39312,7 +39312,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -39529,7 +39529,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -39750,7 +39750,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -40031,7 +40031,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -40450,7 +40450,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -40588,7 +40588,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40663,7 +40663,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -40730,7 +40730,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40805,7 +40805,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -41257,7 +41257,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41412,7 +41412,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -41479,7 +41479,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41625,7 +41625,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41775,7 +41775,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41909,7 +41909,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -42193,7 +42193,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -42332,7 +42332,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42550,7 +42550,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -42629,7 +42629,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -42704,7 +42704,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -43063,7 +43063,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -43142,7 +43142,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -43221,7 +43221,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -43300,7 +43300,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -43584,7 +43584,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43723,7 +43723,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -43794,7 +43794,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -44224,7 +44224,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -44429,7 +44429,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -44650,7 +44650,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -44729,7 +44729,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -44796,7 +44796,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -45155,7 +45155,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -45387,7 +45387,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -45663,7 +45663,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -45898,7 +45898,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -45961,7 +45961,7 @@
         </is>
       </c>
       <c r="I626" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J626" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -46174,7 +46174,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -46395,7 +46395,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -46533,7 +46533,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -46604,7 +46604,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -46683,7 +46683,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -46821,7 +46821,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46967,7 +46967,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -47113,7 +47113,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47247,7 +47247,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -47322,7 +47322,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -47401,7 +47401,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -47539,7 +47539,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -47602,7 +47602,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -47817,7 +47817,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -47959,7 +47959,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -48176,7 +48176,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -48249,7 +48249,7 @@
         </is>
       </c>
       <c r="I658" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J658" t="inlineStr">
         <is>
@@ -48395,7 +48395,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -48542,7 +48542,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -48818,7 +48818,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -49031,7 +49031,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -49173,7 +49173,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -49315,7 +49315,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -49394,7 +49394,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -49465,7 +49465,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49753,7 +49753,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -49903,7 +49903,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -50041,7 +50041,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -50112,7 +50112,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -50250,7 +50250,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50676,7 +50676,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K692" t="inlineStr">
@@ -50814,7 +50814,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -51019,7 +51019,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -51098,7 +51098,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -51256,7 +51256,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -51402,7 +51402,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
@@ -51466,7 +51466,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -51613,7 +51613,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -51688,7 +51688,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -51755,7 +51755,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -51830,7 +51830,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -52406,7 +52406,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52481,7 +52481,7 @@
         </is>
       </c>
       <c r="I717" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J717" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
@@ -53276,7 +53276,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -53603,7 +53603,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K732" t="inlineStr">
@@ -54179,7 +54179,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -54631,7 +54631,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -54706,7 +54706,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
@@ -54773,11 +54773,11 @@
         </is>
       </c>
       <c r="I748" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -54986,7 +54986,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -55059,7 +55059,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
@@ -55138,7 +55138,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K753" t="inlineStr">
@@ -55280,7 +55280,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -55351,7 +55351,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -55509,7 +55509,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K758" t="inlineStr">
@@ -55799,7 +55799,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -56016,7 +56016,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -56300,7 +56300,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K769" t="inlineStr">
@@ -56450,7 +56450,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K771" t="inlineStr">
@@ -56600,7 +56600,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56738,7 +56738,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -56810,7 +56810,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
@@ -57185,7 +57185,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -57485,7 +57485,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K785" t="inlineStr">
@@ -57628,7 +57628,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K787" t="inlineStr">
@@ -57920,7 +57920,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -58223,7 +58223,7 @@
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -58304,7 +58304,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K796" t="inlineStr">
@@ -58442,7 +58442,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K798" t="inlineStr">
@@ -58600,7 +58600,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K800" t="inlineStr">
@@ -58750,7 +58750,7 @@
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K802" t="inlineStr">
@@ -58821,7 +58821,7 @@
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K803" t="inlineStr">
@@ -58900,7 +58900,7 @@
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K804" t="inlineStr">
@@ -58971,7 +58971,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K805" t="inlineStr">
@@ -59334,7 +59334,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K810" t="inlineStr">
@@ -59405,7 +59405,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
@@ -59549,7 +59549,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
@@ -60129,7 +60129,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
@@ -60200,7 +60200,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
@@ -60350,7 +60350,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
@@ -60421,7 +60421,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K825" t="inlineStr">
@@ -60640,7 +60640,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
@@ -60867,7 +60867,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K831" t="inlineStr">
@@ -60934,7 +60934,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K832" t="inlineStr">
@@ -61005,11 +61005,11 @@
         </is>
       </c>
       <c r="I833" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K833" t="inlineStr">
@@ -61536,7 +61536,7 @@
         </is>
       </c>
       <c r="I840" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J840" t="inlineStr">
         <is>
@@ -61619,7 +61619,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
@@ -61686,7 +61686,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K842" t="inlineStr">
@@ -61828,7 +61828,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K844" t="inlineStr">
@@ -62053,7 +62053,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K847" t="inlineStr">
@@ -62558,7 +62558,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -62625,7 +62625,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -62846,7 +62846,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
@@ -62925,7 +62925,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
@@ -63300,7 +63300,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
@@ -63442,7 +63442,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
@@ -64073,7 +64073,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K875" t="inlineStr">
@@ -64357,7 +64357,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
@@ -64879,7 +64879,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -64950,7 +64950,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -65084,7 +65084,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -65222,11 +65222,11 @@
         </is>
       </c>
       <c r="I891" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
@@ -65305,7 +65305,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
@@ -65449,7 +65449,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
@@ -65520,7 +65520,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65587,7 +65587,7 @@
         </is>
       </c>
       <c r="I896" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J896" t="inlineStr">
         <is>
@@ -65666,7 +65666,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65883,7 +65883,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -65950,7 +65950,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
@@ -66025,7 +66025,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
@@ -66104,7 +66104,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
@@ -66332,7 +66332,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -66478,7 +66478,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
@@ -66628,7 +66628,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
@@ -66703,7 +66703,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
@@ -66770,7 +66770,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -66849,7 +66849,7 @@
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
@@ -66924,7 +66924,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
@@ -66999,7 +66999,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
@@ -67070,7 +67070,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
@@ -67208,7 +67208,7 @@
         </is>
       </c>
       <c r="I918" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J918" t="inlineStr">
         <is>
@@ -67294,7 +67294,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -67361,7 +67361,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
@@ -67432,7 +67432,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
@@ -67511,7 +67511,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
@@ -67657,7 +67657,7 @@
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
@@ -67736,7 +67736,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
@@ -67807,7 +67807,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K926" t="inlineStr">
@@ -67882,7 +67882,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
@@ -68095,7 +68095,7 @@
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K930" t="inlineStr">
@@ -68241,7 +68241,7 @@
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K932" t="inlineStr">
@@ -68312,7 +68312,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K933" t="inlineStr">
@@ -68615,7 +68615,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K937" t="inlineStr">
@@ -68897,7 +68897,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K941" t="inlineStr">
@@ -69102,7 +69102,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K944" t="inlineStr">
@@ -69173,7 +69173,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K945" t="inlineStr">
@@ -69329,7 +69329,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K947" t="inlineStr">
@@ -69396,7 +69396,7 @@
         </is>
       </c>
       <c r="I948" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J948" t="inlineStr">
         <is>
@@ -69554,7 +69554,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K950" t="inlineStr">
@@ -69621,7 +69621,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K951" t="inlineStr">
@@ -69700,7 +69700,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K952" t="inlineStr">
@@ -69976,7 +69976,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -70128,7 +70128,7 @@
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K958" t="inlineStr">
@@ -70191,7 +70191,7 @@
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K959" t="inlineStr">
@@ -70259,11 +70259,11 @@
         </is>
       </c>
       <c r="I960" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K960" t="inlineStr">
@@ -70338,7 +70338,7 @@
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K961" t="inlineStr">
@@ -70405,7 +70405,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K962" t="inlineStr">
@@ -70559,7 +70559,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K964" t="inlineStr">
@@ -70638,7 +70638,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K965" t="inlineStr">
@@ -70922,7 +70922,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
@@ -71072,7 +71072,7 @@
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K971" t="inlineStr">
@@ -71139,7 +71139,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K972" t="inlineStr">
@@ -71202,11 +71202,11 @@
         </is>
       </c>
       <c r="I973" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K973" t="inlineStr">
@@ -71274,7 +71274,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K974" t="inlineStr">
@@ -71499,7 +71499,7 @@
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K977" t="inlineStr">
@@ -71567,7 +71567,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K978" t="inlineStr">
@@ -71701,7 +71701,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
@@ -71772,11 +71772,11 @@
         </is>
       </c>
       <c r="I981" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K981" t="inlineStr">
@@ -71839,11 +71839,11 @@
         </is>
       </c>
       <c r="I982" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K982" t="inlineStr">
@@ -71922,7 +71922,7 @@
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K983" t="inlineStr">
@@ -71993,7 +71993,7 @@
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K984" t="inlineStr">
@@ -72368,7 +72368,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K989" t="inlineStr">
@@ -72447,7 +72447,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K990" t="inlineStr">
@@ -72597,7 +72597,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -72664,7 +72664,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K993" t="inlineStr">
@@ -72735,7 +72735,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K994" t="inlineStr">
@@ -72812,7 +72812,7 @@
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K995" t="inlineStr">
@@ -72942,7 +72942,7 @@
         </is>
       </c>
       <c r="I997" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J997" t="inlineStr">
         <is>
@@ -73013,7 +73013,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K998" t="inlineStr">
@@ -73092,7 +73092,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K999" t="inlineStr">
@@ -73238,7 +73238,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1001" t="inlineStr">
@@ -73396,7 +73396,7 @@
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1003" t="inlineStr">
@@ -73688,7 +73688,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1007" t="inlineStr">
@@ -73759,7 +73759,7 @@
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1008" t="inlineStr">
@@ -73826,7 +73826,7 @@
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1009" t="inlineStr">
@@ -73897,7 +73897,7 @@
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1010" t="inlineStr">
@@ -73976,7 +73976,7 @@
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1011" t="inlineStr">
@@ -74047,7 +74047,7 @@
       </c>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1012" t="inlineStr">
@@ -74126,7 +74126,7 @@
       </c>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1013" t="inlineStr">
@@ -74189,11 +74189,11 @@
         </is>
       </c>
       <c r="I1014" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1014" t="inlineStr">
@@ -74422,11 +74422,11 @@
         </is>
       </c>
       <c r="I1017" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1017" t="inlineStr">
@@ -74497,7 +74497,7 @@
         </is>
       </c>
       <c r="I1018" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1018" t="inlineStr">
         <is>
@@ -74712,7 +74712,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
@@ -74862,7 +74862,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1023" t="inlineStr">
@@ -74941,7 +74941,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1024" t="inlineStr">
@@ -75091,7 +75091,7 @@
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1026" t="inlineStr">
@@ -75158,7 +75158,7 @@
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1027" t="inlineStr">
@@ -75371,7 +75371,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1030" t="inlineStr">
@@ -75588,7 +75588,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1033" t="inlineStr">
@@ -75667,7 +75667,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1034" t="inlineStr">
@@ -75746,7 +75746,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
@@ -75825,7 +75825,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1036" t="inlineStr">
@@ -75896,7 +75896,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1037" t="inlineStr">
@@ -75967,7 +75967,7 @@
       </c>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1038" t="inlineStr">
@@ -76038,7 +76038,7 @@
       </c>
       <c r="J1039" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1039" t="inlineStr">
@@ -76184,11 +76184,11 @@
         </is>
       </c>
       <c r="I1041" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1041" t="inlineStr">
@@ -76264,7 +76264,7 @@
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1042" t="inlineStr">
@@ -76331,7 +76331,7 @@
       </c>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1043" t="inlineStr">
@@ -76481,7 +76481,7 @@
       </c>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1045" t="inlineStr">
@@ -76556,7 +76556,7 @@
       </c>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1046" t="inlineStr">
@@ -76623,7 +76623,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1047" t="inlineStr">
@@ -76841,7 +76841,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1050" t="inlineStr">
@@ -76920,7 +76920,7 @@
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1051" t="inlineStr">
@@ -76995,7 +76995,7 @@
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1052" t="inlineStr">
@@ -77074,7 +77074,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1053" t="inlineStr">
@@ -77150,7 +77150,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1054" t="inlineStr">
@@ -77217,7 +77217,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -77585,7 +77585,7 @@
       </c>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1060" t="inlineStr">
@@ -77660,7 +77660,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1061" t="inlineStr">
@@ -77810,7 +77810,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1063" t="inlineStr">
@@ -77877,7 +77877,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1064" t="inlineStr">
@@ -77956,7 +77956,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1065" t="inlineStr">
@@ -78114,7 +78114,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1067" t="inlineStr">
@@ -78193,7 +78193,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1068" t="inlineStr">
@@ -78272,7 +78272,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1069" t="inlineStr">
@@ -78351,7 +78351,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1070" t="inlineStr">
@@ -78418,7 +78418,7 @@
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1071" t="inlineStr">
@@ -78500,7 +78500,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr">
@@ -78571,7 +78571,7 @@
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1073" t="inlineStr">
@@ -78638,7 +78638,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1074" t="inlineStr">
@@ -78713,7 +78713,7 @@
       </c>
       <c r="J1075" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1075" t="inlineStr">
@@ -78784,7 +78784,7 @@
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1076" t="inlineStr">
@@ -78851,7 +78851,7 @@
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1077" t="inlineStr">
@@ -78918,11 +78918,11 @@
         </is>
       </c>
       <c r="I1078" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1078" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1078" t="inlineStr">
@@ -79077,7 +79077,7 @@
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1080" t="inlineStr">
@@ -79450,7 +79450,7 @@
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1085" t="inlineStr">
@@ -79596,7 +79596,7 @@
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1087" t="inlineStr">
@@ -79668,7 +79668,7 @@
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1088" t="inlineStr">
@@ -79739,7 +79739,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1089" t="inlineStr">
@@ -79814,7 +79814,7 @@
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1090" t="inlineStr">
@@ -79953,11 +79953,11 @@
         </is>
       </c>
       <c r="I1092" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1092" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1092" t="inlineStr">
@@ -80188,11 +80188,11 @@
         </is>
       </c>
       <c r="I1095" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1095" t="inlineStr">
@@ -80263,7 +80263,7 @@
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1096" t="inlineStr">
@@ -80488,7 +80488,7 @@
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1099" t="inlineStr">
@@ -80634,7 +80634,7 @@
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1101" t="inlineStr">
@@ -80709,7 +80709,7 @@
       </c>
       <c r="J1102" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1102" t="inlineStr">
@@ -80863,7 +80863,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1104" t="inlineStr">
@@ -80942,7 +80942,7 @@
       </c>
       <c r="J1105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1105" t="inlineStr">
@@ -81096,11 +81096,11 @@
         </is>
       </c>
       <c r="I1107" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1107" t="inlineStr">
@@ -81175,7 +81175,7 @@
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1108" t="inlineStr">
@@ -81242,7 +81242,7 @@
         </is>
       </c>
       <c r="I1109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1109" t="inlineStr">
         <is>
@@ -81313,7 +81313,7 @@
         </is>
       </c>
       <c r="I1110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1110" t="inlineStr">
         <is>
@@ -81380,7 +81380,7 @@
       </c>
       <c r="J1111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1111" t="inlineStr">
@@ -81526,7 +81526,7 @@
       </c>
       <c r="J1113" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1113" t="inlineStr">
@@ -81597,7 +81597,7 @@
       </c>
       <c r="J1114" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1114" t="inlineStr">
@@ -81739,7 +81739,7 @@
       </c>
       <c r="J1116" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1116" t="inlineStr">
@@ -81810,7 +81810,7 @@
       </c>
       <c r="J1117" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1117" t="inlineStr">
@@ -81889,7 +81889,7 @@
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1118" t="inlineStr">
@@ -82032,7 +82032,7 @@
       </c>
       <c r="J1120" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1120" t="inlineStr">
@@ -82095,11 +82095,11 @@
         </is>
       </c>
       <c r="I1121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1121" t="inlineStr">
@@ -82387,7 +82387,7 @@
       </c>
       <c r="J1125" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1125" t="inlineStr">
@@ -82600,7 +82600,7 @@
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1128" t="inlineStr">
@@ -82671,7 +82671,7 @@
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1129" t="inlineStr">
@@ -82805,7 +82805,7 @@
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1131" t="inlineStr">
@@ -83022,7 +83022,7 @@
       </c>
       <c r="J1134" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1134" t="inlineStr">
@@ -83097,7 +83097,7 @@
       </c>
       <c r="J1135" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1135" t="inlineStr">
@@ -83164,7 +83164,7 @@
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1136" t="inlineStr">
@@ -83231,7 +83231,7 @@
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1137" t="inlineStr">
@@ -83448,7 +83448,7 @@
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1140" t="inlineStr">
@@ -83515,11 +83515,11 @@
         </is>
       </c>
       <c r="I1141" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="J1141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1141" t="inlineStr">
@@ -83594,7 +83594,7 @@
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1142" t="inlineStr">
@@ -83883,7 +83883,7 @@
       </c>
       <c r="J1146" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1146" t="inlineStr">
@@ -83954,7 +83954,7 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1147" t="inlineStr">
@@ -84108,7 +84108,7 @@
       </c>
       <c r="J1149" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1149" t="inlineStr">
@@ -84467,7 +84467,7 @@
       </c>
       <c r="J1154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1154" t="inlineStr">
@@ -84684,7 +84684,7 @@
       </c>
       <c r="J1157" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1157" t="inlineStr">
@@ -84822,7 +84822,7 @@
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1159" t="inlineStr">
@@ -84901,7 +84901,7 @@
       </c>
       <c r="J1160" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1160" t="inlineStr">
@@ -85256,7 +85256,7 @@
       </c>
       <c r="J1165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1165" t="inlineStr">
@@ -85323,7 +85323,7 @@
       </c>
       <c r="J1166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1166" t="inlineStr">
@@ -85402,7 +85402,7 @@
       </c>
       <c r="J1167" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1167" t="inlineStr">
@@ -85473,7 +85473,7 @@
       </c>
       <c r="J1168" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1168" t="inlineStr">
@@ -85599,7 +85599,7 @@
       </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1170" t="inlineStr">
@@ -85813,7 +85813,7 @@
       </c>
       <c r="J1173" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1173" t="inlineStr">
@@ -85959,7 +85959,7 @@
       </c>
       <c r="J1175" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1175" t="inlineStr">
@@ -86030,7 +86030,7 @@
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1176" t="inlineStr">
@@ -86247,7 +86247,7 @@
       </c>
       <c r="J1179" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1179" t="inlineStr">
@@ -86401,7 +86401,7 @@
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1181" t="inlineStr">
@@ -86551,7 +86551,7 @@
       </c>
       <c r="J1183" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1183" t="inlineStr">
@@ -86756,7 +86756,7 @@
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1186" t="inlineStr">
@@ -86898,7 +86898,7 @@
       </c>
       <c r="J1188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1188" t="inlineStr">
@@ -86969,7 +86969,7 @@
       </c>
       <c r="J1189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1189" t="inlineStr">
@@ -87044,7 +87044,7 @@
       </c>
       <c r="J1190" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1190" t="inlineStr">
@@ -87324,11 +87324,11 @@
         </is>
       </c>
       <c r="I1194" t="n">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="J1194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1194" t="inlineStr">
@@ -87399,7 +87399,7 @@
       </c>
       <c r="J1195" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1195" t="inlineStr">
@@ -87478,7 +87478,7 @@
       </c>
       <c r="J1196" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1196" t="inlineStr">
@@ -87628,7 +87628,7 @@
       </c>
       <c r="J1198" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1198" t="inlineStr">
@@ -88011,7 +88011,7 @@
       </c>
       <c r="J1203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1203" t="inlineStr">
@@ -88244,7 +88244,7 @@
       </c>
       <c r="J1206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1206" t="inlineStr">
@@ -88323,7 +88323,7 @@
       </c>
       <c r="J1207" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1207" t="inlineStr">
@@ -88402,7 +88402,7 @@
       </c>
       <c r="J1208" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1208" t="inlineStr">
@@ -88482,7 +88482,7 @@
       </c>
       <c r="J1209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1209" t="inlineStr">
@@ -88553,7 +88553,7 @@
       </c>
       <c r="J1210" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1210" t="inlineStr">
@@ -88771,7 +88771,7 @@
       </c>
       <c r="J1213" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1213" t="inlineStr">
@@ -89051,7 +89051,7 @@
       </c>
       <c r="J1217" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1217" t="inlineStr">
@@ -89122,7 +89122,7 @@
       </c>
       <c r="J1218" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1218" t="inlineStr">
@@ -89189,7 +89189,7 @@
       </c>
       <c r="J1219" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1219" t="inlineStr">
@@ -89261,7 +89261,7 @@
       </c>
       <c r="J1220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1220" t="inlineStr">
@@ -89543,7 +89543,7 @@
       </c>
       <c r="J1224" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1224" t="inlineStr">
@@ -89768,7 +89768,7 @@
       </c>
       <c r="J1227" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1227" t="inlineStr">
@@ -89914,7 +89914,7 @@
       </c>
       <c r="J1229" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1229" t="inlineStr">
@@ -89986,11 +89986,11 @@
         </is>
       </c>
       <c r="I1230" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1230" t="inlineStr">
@@ -90120,7 +90120,7 @@
       </c>
       <c r="J1232" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1232" t="inlineStr">
@@ -90199,7 +90199,7 @@
       </c>
       <c r="J1233" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1233" t="inlineStr">
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="I1235" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J1235" t="inlineStr">
         <is>
@@ -90637,7 +90637,7 @@
       </c>
       <c r="J1239" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1239" t="inlineStr">
@@ -91134,7 +91134,7 @@
       </c>
       <c r="J1246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1246" t="inlineStr">
@@ -91213,7 +91213,7 @@
       </c>
       <c r="J1247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1247" t="inlineStr">
@@ -91356,11 +91356,11 @@
         </is>
       </c>
       <c r="I1249" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J1249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1249" t="inlineStr">
@@ -91439,7 +91439,7 @@
       </c>
       <c r="J1250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1250" t="inlineStr">
@@ -91506,11 +91506,11 @@
         </is>
       </c>
       <c r="I1251" t="n">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="J1251" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1251" t="inlineStr">
@@ -91585,7 +91585,7 @@
       </c>
       <c r="J1252" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1252" t="inlineStr">
@@ -91656,7 +91656,7 @@
       </c>
       <c r="J1253" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1253" t="inlineStr">
@@ -91727,7 +91727,7 @@
       </c>
       <c r="J1254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1254" t="inlineStr">
@@ -91806,7 +91806,7 @@
       </c>
       <c r="J1255" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1255" t="inlineStr">
@@ -91964,7 +91964,7 @@
       </c>
       <c r="J1257" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1257" t="inlineStr">
@@ -92027,7 +92027,7 @@
       </c>
       <c r="J1258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1258" t="inlineStr">
@@ -92106,7 +92106,7 @@
       </c>
       <c r="J1259" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1259" t="inlineStr">
@@ -92260,7 +92260,7 @@
       </c>
       <c r="J1261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1261" t="inlineStr">
@@ -92339,7 +92339,7 @@
       </c>
       <c r="J1262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1262" t="inlineStr">
@@ -92420,7 +92420,7 @@
       </c>
       <c r="J1263" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1263" t="inlineStr">
@@ -92492,7 +92492,7 @@
       </c>
       <c r="J1264" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1264" t="inlineStr">
@@ -92724,7 +92724,7 @@
       </c>
       <c r="J1267" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1267" t="inlineStr">
@@ -92803,7 +92803,7 @@
       </c>
       <c r="J1268" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1268" t="inlineStr">
@@ -92874,7 +92874,7 @@
       </c>
       <c r="J1269" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1269" t="inlineStr">
@@ -93024,7 +93024,7 @@
       </c>
       <c r="J1271" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1271" t="inlineStr">
@@ -93095,7 +93095,7 @@
       </c>
       <c r="J1272" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1272" t="inlineStr">
@@ -93324,7 +93324,7 @@
       </c>
       <c r="J1275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1275" t="inlineStr">
@@ -93470,7 +93470,7 @@
       </c>
       <c r="J1277" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1277" t="inlineStr">
@@ -93758,7 +93758,7 @@
       </c>
       <c r="J1281" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1281" t="inlineStr">
@@ -93829,7 +93829,7 @@
       </c>
       <c r="J1282" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1282" t="inlineStr">
@@ -93900,7 +93900,7 @@
       </c>
       <c r="J1283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1283" t="inlineStr">
@@ -94272,7 +94272,7 @@
       </c>
       <c r="J1288" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1288" t="inlineStr">
@@ -94343,7 +94343,7 @@
       </c>
       <c r="J1289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1289" t="inlineStr">
@@ -94489,7 +94489,7 @@
       </c>
       <c r="J1291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1291" t="inlineStr">
@@ -94714,7 +94714,7 @@
       </c>
       <c r="J1294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1294" t="inlineStr">
@@ -94785,7 +94785,7 @@
       </c>
       <c r="J1295" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1295" t="inlineStr">
@@ -95002,7 +95002,7 @@
       </c>
       <c r="J1298" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1298" t="inlineStr">
@@ -95069,7 +95069,7 @@
       </c>
       <c r="J1299" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1299" t="inlineStr">
@@ -95207,7 +95207,7 @@
       </c>
       <c r="J1301" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1301" t="inlineStr">
@@ -95358,7 +95358,7 @@
       </c>
       <c r="J1303" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1303" t="inlineStr">
@@ -95425,7 +95425,7 @@
       </c>
       <c r="J1304" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1304" t="inlineStr">
@@ -95575,7 +95575,7 @@
       </c>
       <c r="J1306" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1306" t="inlineStr">
@@ -95654,7 +95654,7 @@
       </c>
       <c r="J1307" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K1307" t="inlineStr">
@@ -95733,7 +95733,7 @@
       </c>
       <c r="J1308" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1308" t="inlineStr">
@@ -95883,7 +95883,7 @@
       </c>
       <c r="J1310" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1310" t="inlineStr">
@@ -95962,7 +95962,7 @@
       </c>
       <c r="J1311" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1311" t="inlineStr">
@@ -96037,7 +96037,7 @@
       </c>
       <c r="J1312" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1312" t="inlineStr">
@@ -96108,7 +96108,7 @@
       </c>
       <c r="J1313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1313" t="inlineStr">
@@ -96404,7 +96404,7 @@
       </c>
       <c r="J1317" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1317" t="inlineStr">
@@ -96483,7 +96483,7 @@
       </c>
       <c r="J1318" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1318" t="inlineStr">
@@ -96558,7 +96558,7 @@
       </c>
       <c r="J1319" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K1319" t="inlineStr">
@@ -96842,7 +96842,7 @@
       </c>
       <c r="J1323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1323" t="inlineStr">
@@ -96980,7 +96980,7 @@
       </c>
       <c r="J1325" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1325" t="inlineStr">
@@ -97055,7 +97055,7 @@
         </is>
       </c>
       <c r="I1326" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J1326" t="inlineStr">
         <is>
@@ -97126,7 +97126,7 @@
       </c>
       <c r="J1327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1327" t="inlineStr">
@@ -97193,11 +97193,11 @@
         </is>
       </c>
       <c r="I1328" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J1328" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1328" t="inlineStr">
@@ -97276,7 +97276,7 @@
       </c>
       <c r="J1329" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1329" t="inlineStr">
@@ -97414,7 +97414,7 @@
         </is>
       </c>
       <c r="I1331" t="n">
-        <v>1920</v>
+        <v>1932</v>
       </c>
       <c r="J1331" t="inlineStr">
         <is>
@@ -97485,7 +97485,7 @@
       </c>
       <c r="J1332" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1332" t="inlineStr">
@@ -97552,7 +97552,7 @@
       </c>
       <c r="J1333" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K1333" t="inlineStr">
@@ -97627,7 +97627,7 @@
       </c>
       <c r="J1334" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1334" t="inlineStr">
